--- a/measurements/detector_signals/cycle_1/161/radial_measurements_full_tc.xlsx
+++ b/measurements/detector_signals/cycle_1/161/radial_measurements_full_tc.xlsx
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -847,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.666216950391</v>
+        <v>0.678846256784</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -863,7 +863,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -879,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -887,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -895,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -911,7 +911,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -919,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1.29924708381</v>
+        <v>1.21126960749</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -927,7 +927,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -935,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -943,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -959,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -967,7 +967,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6747973981249999</v>
+        <v>0.687179174242</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -975,7 +975,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -983,7 +983,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -991,7 +991,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9847901815</v>
+        <v>1.00188841038</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -999,7 +999,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1007,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1015,7 +1015,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6747973981249999</v>
+        <v>0.687179174242</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1031,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1039,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1047,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1055,7 +1055,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>1.28976963075</v>
+        <v>1.31079628805</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1071,7 +1071,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1079,7 +1079,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>1.31037353417</v>
+        <v>1.33211027851</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1103,7 +1103,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>1.15180109192</v>
+        <v>1.12542156452</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1127,7 +1127,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1135,7 +1135,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1143,7 +1143,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>1.31037353417</v>
+        <v>1.33211027851</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1151,7 +1151,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1159,7 +1159,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1175,7 +1175,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1183,7 +1183,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1199,7 +1199,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>1.3561940674</v>
+        <v>1.3798652656</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1215,7 +1215,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1.36870167843</v>
+        <v>1.33892010145</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1231,7 +1231,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>1.3561940674</v>
+        <v>1.3798652656</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1247,7 +1247,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1255,7 +1255,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1263,7 +1263,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1279,7 +1279,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1287,7 +1287,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1303,7 +1303,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1311,7 +1311,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1319,7 +1319,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>1.43125236943</v>
+        <v>1.30139878445</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>1.01348516684</v>
+        <v>1.03087691513</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>1.43125236943</v>
+        <v>1.30139878445</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1359,7 +1359,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1367,7 +1367,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1375,7 +1375,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1383,7 +1383,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1391,7 +1391,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1399,7 +1399,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.666216950391</v>
+        <v>0.678846256784</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1407,7 +1407,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>1.29924708381</v>
+        <v>1.21126960749</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1415,7 +1415,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9847901815</v>
+        <v>1.00188841038</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1423,7 +1423,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>1.28976963075</v>
+        <v>1.31079628805</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1431,7 +1431,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>1.15180109192</v>
+        <v>1.12542156452</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1439,7 +1439,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>1.36870167843</v>
+        <v>1.33892010145</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1447,7 +1447,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.01348516684</v>
+        <v>1.03087691513</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1455,7 +1455,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1.01348516684</v>
+        <v>1.03087691513</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1463,7 +1463,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>1.36870167843</v>
+        <v>1.33892010145</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1471,7 +1471,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>1.15180109192</v>
+        <v>1.12542156452</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1479,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1.28976963075</v>
+        <v>1.31079628805</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9847901815</v>
+        <v>1.00188841038</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1495,7 +1495,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1.29924708381</v>
+        <v>1.21126960749</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1503,7 +1503,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>0.666216950391</v>
+        <v>0.678846256784</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1519,7 +1519,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1527,7 +1527,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1535,7 +1535,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1543,7 +1543,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1551,7 +1551,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1559,7 +1559,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>1.43125236943</v>
+        <v>1.30139878445</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1567,7 +1567,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>1.01348516684</v>
+        <v>1.03087691513</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1575,7 +1575,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>1.43125236943</v>
+        <v>1.30139878445</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1591,7 +1591,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1615,7 +1615,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1623,7 +1623,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1631,7 +1631,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1639,7 +1639,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1655,7 +1655,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1671,7 +1671,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>1.3561940674</v>
+        <v>1.3798652656</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1679,7 +1679,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1687,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>1.36870167843</v>
+        <v>1.33892010145</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1695,7 +1695,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>1.13822314908</v>
+        <v>1.11355377866</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1703,7 +1703,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1.3561940674</v>
+        <v>1.3798652656</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1711,7 +1711,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1719,7 +1719,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1727,7 +1727,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1735,7 +1735,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1743,7 +1743,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1751,7 +1751,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>1.31037353417</v>
+        <v>1.33211027851</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1767,7 +1767,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1775,7 +1775,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1783,7 +1783,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>1.15180109192</v>
+        <v>1.12542156452</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1791,7 +1791,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>1.32658064091</v>
+        <v>1.34781485183</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1799,7 +1799,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>1.0909343795</v>
+        <v>1.11029862242</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1807,7 +1807,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>1.31037353417</v>
+        <v>1.33211027851</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1823,7 +1823,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1839,7 +1839,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1847,7 +1847,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1.28976963075</v>
+        <v>1.31079628805</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>1.1119078401</v>
+        <v>1.09169830677</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1863,7 +1863,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>1.3157090422</v>
+        <v>1.29136388046</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1871,7 +1871,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1879,7 +1879,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1887,7 +1887,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.6747973981249999</v>
+        <v>0.687179174242</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1895,7 +1895,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1903,7 +1903,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1911,7 +1911,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9847901815</v>
+        <v>1.00188841038</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1919,7 +1919,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2135475467</v>
+        <v>1.23228780065</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.967927045037</v>
+        <v>0.984686311592</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1935,7 +1935,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.6747973981249999</v>
+        <v>0.687179174242</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1951,7 +1951,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1959,7 +1959,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1975,7 +1975,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1983,7 +1983,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>1.29924708381</v>
+        <v>1.21126960749</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1991,7 +1991,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>0.8081335310809999</v>
+        <v>0.822605739677</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1999,7 +1999,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>1.14402073566</v>
+        <v>1.16332001126</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2007,7 +2007,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>0.740153399232</v>
+        <v>0.7539584878659999</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2015,7 +2015,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.536432909213</v>
+        <v>0.545710923476</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2023,7 +2023,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2031,7 +2031,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2039,7 +2039,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2047,7 +2047,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.666216950391</v>
+        <v>0.678846256784</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>0.690532719584</v>
+        <v>0.701599288685</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2063,7 +2063,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.622596162957</v>
+        <v>0.633570024496</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2071,7 +2071,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.51998632237</v>
+        <v>0.508245648867</v>
       </c>
     </row>
   </sheetData>
